--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H2">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I2">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J2">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N2">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q2">
-        <v>7.958596570155001</v>
+        <v>31.04763079074689</v>
       </c>
       <c r="R2">
-        <v>71.62736913139501</v>
+        <v>279.428677116722</v>
       </c>
       <c r="S2">
-        <v>0.05119701253657807</v>
+        <v>0.1215008283352977</v>
       </c>
       <c r="T2">
-        <v>0.05119701253657807</v>
+        <v>0.1215008283352977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H3">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I3">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J3">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.325559</v>
       </c>
       <c r="O3">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P3">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q3">
-        <v>12.28451497582833</v>
+        <v>26.63073950523856</v>
       </c>
       <c r="R3">
-        <v>110.560634782455</v>
+        <v>239.676655547147</v>
       </c>
       <c r="S3">
-        <v>0.07902529820166712</v>
+        <v>0.1042159039726902</v>
       </c>
       <c r="T3">
-        <v>0.07902529820166714</v>
+        <v>0.1042159039726903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H4">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I4">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J4">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N4">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q4">
-        <v>1.777475808606667</v>
+        <v>6.175019926805333</v>
       </c>
       <c r="R4">
-        <v>15.99728227746</v>
+        <v>55.575179341248</v>
       </c>
       <c r="S4">
-        <v>0.01143435911778192</v>
+        <v>0.02416513005937379</v>
       </c>
       <c r="T4">
-        <v>0.01143435911778192</v>
+        <v>0.02416513005937379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H5">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I5">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J5">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N5">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q5">
-        <v>0.05837178911666667</v>
+        <v>0.08804699285044446</v>
       </c>
       <c r="R5">
-        <v>0.52534610205</v>
+        <v>0.7924229356540001</v>
       </c>
       <c r="S5">
-        <v>0.0003755010312239349</v>
+        <v>0.0003445603510252153</v>
       </c>
       <c r="T5">
-        <v>0.000375501031223935</v>
+        <v>0.0003445603510252153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>17.592014</v>
       </c>
       <c r="I6">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J6">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N6">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O6">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P6">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q6">
-        <v>33.337200778266</v>
+        <v>59.99235260151956</v>
       </c>
       <c r="R6">
-        <v>300.034807004394</v>
+        <v>539.931173413676</v>
       </c>
       <c r="S6">
-        <v>0.2144555351102642</v>
+        <v>0.2347721983682004</v>
       </c>
       <c r="T6">
-        <v>0.2144555351102642</v>
+        <v>0.2347721983682004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.592014</v>
       </c>
       <c r="I7">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J7">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>26.325559</v>
       </c>
       <c r="O7">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P7">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q7">
         <v>51.45773360953621</v>
@@ -883,10 +883,10 @@
         <v>463.119602485826</v>
       </c>
       <c r="S7">
-        <v>0.3310234674528817</v>
+        <v>0.2013730870465988</v>
       </c>
       <c r="T7">
-        <v>0.3310234674528817</v>
+        <v>0.2013730870465988</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.592014</v>
       </c>
       <c r="I8">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J8">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N8">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O8">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P8">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q8">
-        <v>7.445542362612444</v>
+        <v>11.93179522350933</v>
       </c>
       <c r="R8">
-        <v>67.009881263512</v>
+        <v>107.386157011584</v>
       </c>
       <c r="S8">
-        <v>0.04789657602569851</v>
+        <v>0.04669351465025768</v>
       </c>
       <c r="T8">
-        <v>0.04789657602569851</v>
+        <v>0.04669351465025769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>17.592014</v>
       </c>
       <c r="I9">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J9">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N9">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O9">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P9">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q9">
-        <v>0.2445094479177778</v>
+        <v>0.1701304127257778</v>
       </c>
       <c r="R9">
-        <v>2.20058503126</v>
+        <v>1.531173714532</v>
       </c>
       <c r="S9">
-        <v>0.001572909640539104</v>
+        <v>0.0006657830418857155</v>
       </c>
       <c r="T9">
-        <v>0.001572909640539104</v>
+        <v>0.0006657830418857155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H10">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I10">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J10">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N10">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O10">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P10">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q10">
-        <v>13.005570352551</v>
+        <v>26.24126230471667</v>
       </c>
       <c r="R10">
-        <v>117.050133172959</v>
+        <v>236.17136074245</v>
       </c>
       <c r="S10">
-        <v>0.08366378952814964</v>
+        <v>0.1026917360643542</v>
       </c>
       <c r="T10">
-        <v>0.08366378952814964</v>
+        <v>0.1026917360643542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H11">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I11">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J11">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.325559</v>
       </c>
       <c r="O11">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P11">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q11">
-        <v>20.07478609535677</v>
+        <v>22.50813356534166</v>
       </c>
       <c r="R11">
-        <v>180.673074858211</v>
+        <v>202.573202088075</v>
       </c>
       <c r="S11">
-        <v>0.1291394866335192</v>
+        <v>0.08808262668743042</v>
       </c>
       <c r="T11">
-        <v>0.1291394866335193</v>
+        <v>0.08808262668743043</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H12">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I12">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J12">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N12">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O12">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P12">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q12">
-        <v>2.904668740903555</v>
+        <v>5.219088011199999</v>
       </c>
       <c r="R12">
-        <v>26.142018668132</v>
+        <v>46.97179210079999</v>
       </c>
       <c r="S12">
-        <v>0.01868550072010365</v>
+        <v>0.02042421596641147</v>
       </c>
       <c r="T12">
-        <v>0.01868550072010366</v>
+        <v>0.02042421596641147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H13">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I13">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J13">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N13">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O13">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P13">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q13">
-        <v>0.09538847751222222</v>
+        <v>0.07441676468333334</v>
       </c>
       <c r="R13">
-        <v>0.85849629761</v>
+        <v>0.66975088215</v>
       </c>
       <c r="S13">
-        <v>0.0006136264146560733</v>
+        <v>0.0002912202419565172</v>
       </c>
       <c r="T13">
-        <v>0.0006136264146560735</v>
+        <v>0.0002912202419565172</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H14">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I14">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J14">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N14">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O14">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P14">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q14">
-        <v>1.732392259458</v>
+        <v>6.796901020915334</v>
       </c>
       <c r="R14">
-        <v>15.591530335122</v>
+        <v>61.172109188238</v>
       </c>
       <c r="S14">
-        <v>0.01114434026701955</v>
+        <v>0.0265987801040318</v>
       </c>
       <c r="T14">
-        <v>0.01114434026701955</v>
+        <v>0.0265987801040318</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H15">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I15">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J15">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>26.325559</v>
       </c>
       <c r="O15">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P15">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q15">
-        <v>2.674039130859777</v>
+        <v>5.829961769090334</v>
       </c>
       <c r="R15">
-        <v>24.066352177738</v>
+        <v>52.469655921813</v>
       </c>
       <c r="S15">
-        <v>0.01720187896184088</v>
+        <v>0.02281479024540257</v>
       </c>
       <c r="T15">
-        <v>0.01720187896184089</v>
+        <v>0.02281479024540257</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H16">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I16">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J16">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N16">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O16">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P16">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q16">
-        <v>0.3869131077395555</v>
+        <v>1.351826151488</v>
       </c>
       <c r="R16">
-        <v>3.482217969656</v>
+        <v>12.166435363392</v>
       </c>
       <c r="S16">
-        <v>0.002488980946941329</v>
+        <v>0.005290194226995906</v>
       </c>
       <c r="T16">
-        <v>0.002488980946941329</v>
+        <v>0.005290194226995906</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6643690000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.993107</v>
+      </c>
+      <c r="I17">
+        <v>0.05477919521451775</v>
+      </c>
+      <c r="J17">
+        <v>0.05477919521451775</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.3047273333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.9141819999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.03091693758693657</v>
-      </c>
-      <c r="J17">
-        <v>0.03091693758693657</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M17">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N17">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O17">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P17">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q17">
-        <v>0.01270611404222222</v>
+        <v>0.01927511634066667</v>
       </c>
       <c r="R17">
-        <v>0.11435502638</v>
+        <v>0.173476047066</v>
       </c>
       <c r="S17">
-        <v>8.173741113480919E-05</v>
+        <v>7.543063808747042E-05</v>
       </c>
       <c r="T17">
-        <v>8.173741113480921E-05</v>
+        <v>7.543063808747042E-05</v>
       </c>
     </row>
   </sheetData>
